--- a/biology/Botanique/Lacunaria_crenata/Lacunaria_crenata.xlsx
+++ b/biology/Botanique/Lacunaria_crenata/Lacunaria_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lacunaria crenata est une espèce de plantes à fleurs de la famille des Quiinaceae, selon la classification classique, de la famille des Ochnaceae, selon la classifiaction phylogénétique. C'est un arbre originaire de l'Amérique centrale jusqu'au Brésil[1]. Elle a été décrite pour la première fois par Edmond Tulasne en 1849 sous le basionyme de Quiina crenata[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lacunaria crenata est une espèce de plantes à fleurs de la famille des Quiinaceae, selon la classification classique, de la famille des Ochnaceae, selon la classifiaction phylogénétique. C'est un arbre originaire de l'Amérique centrale jusqu'au Brésil. Elle a été décrite pour la première fois par Edmond Tulasne en 1849 sous le basionyme de Quiina crenata.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lacunaria crenata est originaire d'Amérique centrale (Costa Rica, Honduras et Nicaragua et Panama) et du Nord de l'Amérique du Sud (Brésil, Colombie, Équateur, Guyane française, Guyane, Pérou, Surinam et Venezuela)[3].
-C'est un arbre qui pousse principalement dans le biome tropical humide. Il est utilisé pour l'alimentation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lacunaria crenata est originaire d'Amérique centrale (Costa Rica, Honduras et Nicaragua et Panama) et du Nord de l'Amérique du Sud (Brésil, Colombie, Équateur, Guyane française, Guyane, Pérou, Surinam et Venezuela).
+C'est un arbre qui pousse principalement dans le biome tropical humide. Il est utilisé pour l'alimentation.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lacunaria panamensis a été classée « Espèces en voie de disparition (statut UICN)|en voie de disparition » dans la Liste rouge de l'UICN de 1998, où elle serait originaire uniquement du Costa Rica, du Honduras et du Panama[4], L. panamensis était considéré comme synonyme de Lacunaria crenata subsp. crenata, qui a une distribution beaucoup plus large, se trouvant dans toute l'aire de répartition de Lacunaria crenata[5],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lacunaria panamensis a été classée « Espèces en voie de disparition (statut UICN)|en voie de disparition » dans la Liste rouge de l'UICN de 1998, où elle serait originaire uniquement du Costa Rica, du Honduras et du Panama, L. panamensis était considéré comme synonyme de Lacunaria crenata subsp. crenata, qui a une distribution beaucoup plus large, se trouvant dans toute l'aire de répartition de Lacunaria crenata,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (28 décembre 2023)[6] et Plants of the World Online :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (28 décembre 2023) et Plants of the World Online :
 Lacunaria crenata subsp. crenata
 Lacunaria crenata subsp. decastyla (Radlk.) J.V.Schneid. &amp; Zizka</t>
         </is>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lacunaria crenata (Tul.) A.C.Sm.[6].
-L'espèce a été initialement classée dans le genre Quiina sous le basionyme Quiina crenata Tul.[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lacunaria crenata (Tul.) A.C.Sm..
+L'espèce a été initialement classée dans le genre Quiina sous le basionyme Quiina crenata Tul..
 </t>
         </is>
       </c>
